--- a/Projet Dauphine-BI/dataSource/Reporting.xlsx
+++ b/Projet Dauphine-BI/dataSource/Reporting.xlsx
@@ -24,8 +24,9 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId15"/>
+    <pivotCache cacheId="11" r:id="rId15"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -631,7 +632,7 @@
           <c:x val="7.7223244290725399E-2"/>
           <c:y val="0.11392366828256099"/>
           <c:w val="0.80998691940921752"/>
-          <c:h val="0.66639404948149716"/>
+          <c:h val="0.66639404948149739"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2685,24 +2686,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74627712"/>
-        <c:axId val="75301248"/>
+        <c:axId val="76066176"/>
+        <c:axId val="74622080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74627712"/>
+        <c:axId val="76066176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75301248"/>
+        <c:crossAx val="74622080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75301248"/>
+        <c:axId val="74622080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -2711,14 +2712,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74627712"/>
+        <c:crossAx val="76066176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3782,24 +3782,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75428608"/>
-        <c:axId val="75430144"/>
+        <c:axId val="74798592"/>
+        <c:axId val="74800128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75428608"/>
+        <c:axId val="74798592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75430144"/>
+        <c:crossAx val="74800128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75430144"/>
+        <c:axId val="74800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -3808,14 +3808,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75428608"/>
+        <c:crossAx val="74798592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4885,24 +4884,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75487872"/>
-        <c:axId val="75702656"/>
+        <c:axId val="75111808"/>
+        <c:axId val="75146368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75487872"/>
+        <c:axId val="75111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75702656"/>
+        <c:crossAx val="75146368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75702656"/>
+        <c:axId val="75146368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -4911,14 +4910,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75487872"/>
+        <c:crossAx val="75111808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7048,24 +7046,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75770112"/>
-        <c:axId val="75788288"/>
+        <c:axId val="75668480"/>
+        <c:axId val="75678464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75770112"/>
+        <c:axId val="75668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75788288"/>
+        <c:crossAx val="75678464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75788288"/>
+        <c:axId val="75678464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7074,14 +7072,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75770112"/>
+        <c:crossAx val="75668480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8151,24 +8148,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75853824"/>
-        <c:axId val="75855360"/>
+        <c:axId val="75772672"/>
+        <c:axId val="75774208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75853824"/>
+        <c:axId val="75772672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75855360"/>
+        <c:crossAx val="75774208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75855360"/>
+        <c:axId val="75774208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -8177,14 +8174,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75853824"/>
+        <c:crossAx val="75772672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8215,7 +8211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -8225,7 +8220,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -8323,7 +8317,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8353,7 +8347,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -8523,7 +8516,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -8546,9 +8538,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31403215223097114"/>
-          <c:y val="0.24323636628754738"/>
-          <c:w val="0.38860258092738409"/>
+          <c:x val="0.3140321522309712"/>
+          <c:y val="0.24323636628754741"/>
+          <c:w val="0.3886025809273842"/>
           <c:h val="0.64767096821230674"/>
         </c:manualLayout>
       </c:layout>
@@ -8631,7 +8623,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8667,7 +8659,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -8677,7 +8668,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -8775,7 +8765,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8805,7 +8795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -8815,7 +8804,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -8913,7 +8901,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9240,7 +9228,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Administrator" refreshedDate="41012.787052199077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="328">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Administrator" refreshedDate="41013.537818518518" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="328">
   <cacheSource type="worksheet">
     <worksheetSource name="Tableau1"/>
   </cacheSource>
@@ -9388,21 +9376,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.12199033450724252" maxValue="0.11123126916156932"/>
     </cacheField>
     <cacheField name="vol" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.47984534291945125" maxValue="0.98000943763010495" count="13">
-        <m/>
-        <n v="0.80922676613999633"/>
-        <n v="0.98000943763010495"/>
-        <n v="0.87865786571939186"/>
-        <n v="0.71096201028931316"/>
-        <n v="0.86846364137674004"/>
-        <n v="0.86204778816398164"/>
-        <n v="0.55745252606329321"/>
-        <n v="0.66425586297867956"/>
-        <n v="0.71133906042590278"/>
-        <n v="0.47984534291945125"/>
-        <n v="0.6557822695305352"/>
-        <n v="0.87611666102298069"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.47984534291945125" maxValue="0.98000943763010495"/>
     </cacheField>
     <cacheField name="period" numFmtId="49">
       <sharedItems containsBlank="1" count="4">
@@ -9413,21 +9387,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="perf" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.6303567261615276" maxValue="4.2783498918794294E-2" count="13">
-        <m/>
-        <n v="-0.6303567261615276"/>
-        <n v="-0.21671041734148666"/>
-        <n v="-7.6917093058171515E-2"/>
-        <n v="-0.51173439317577984"/>
-        <n v="-0.19391490789424704"/>
-        <n v="-3.4195434072043507E-2"/>
-        <n v="-0.49664666323734175"/>
-        <n v="-0.26919845657010399"/>
-        <n v="-2.7987675355572117E-2"/>
-        <n v="-4.4785498251329714E-2"/>
-        <n v="4.2783498918794294E-2"/>
-        <n v="1.2308195518631049E-3"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.6303567261615276" maxValue="4.2783498918794294E-2"/>
     </cacheField>
     <cacheField name="beta" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.99723094939986423" maxValue="1.0137107098076577"/>
@@ -9455,9 +9415,9 @@
     <x v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9475,9 +9435,9 @@
     <x v="1"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9495,9 +9455,9 @@
     <x v="2"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9515,9 +9475,9 @@
     <x v="3"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9535,9 +9495,9 @@
     <x v="4"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9555,9 +9515,9 @@
     <x v="5"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9575,9 +9535,9 @@
     <x v="6"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9595,9 +9555,9 @@
     <x v="7"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9615,9 +9575,9 @@
     <x v="8"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9635,9 +9595,9 @@
     <x v="9"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9655,9 +9615,9 @@
     <x v="10"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9675,9 +9635,9 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9695,9 +9655,9 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9715,9 +9675,9 @@
     <x v="13"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9735,9 +9695,9 @@
     <x v="14"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9755,9 +9715,9 @@
     <x v="15"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9775,9 +9735,9 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9795,9 +9755,9 @@
     <x v="17"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9815,9 +9775,9 @@
     <x v="18"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9835,9 +9795,9 @@
     <x v="19"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9855,9 +9815,9 @@
     <x v="20"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9875,9 +9835,9 @@
     <x v="21"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9895,9 +9855,9 @@
     <x v="22"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9915,9 +9875,9 @@
     <x v="23"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9935,9 +9895,9 @@
     <x v="24"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9955,9 +9915,9 @@
     <x v="25"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9975,9 +9935,9 @@
     <x v="26"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -9995,9 +9955,9 @@
     <x v="27"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10015,9 +9975,9 @@
     <x v="28"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10035,9 +9995,9 @@
     <x v="29"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10055,9 +10015,9 @@
     <x v="30"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10075,9 +10035,9 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10095,9 +10055,9 @@
     <x v="32"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10115,9 +10075,9 @@
     <x v="33"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10135,9 +10095,9 @@
     <x v="34"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10155,9 +10115,9 @@
     <x v="35"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10175,9 +10135,9 @@
     <x v="36"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10195,9 +10155,9 @@
     <x v="37"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10215,9 +10175,9 @@
     <x v="38"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10235,9 +10195,9 @@
     <x v="39"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10255,9 +10215,9 @@
     <x v="40"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10275,9 +10235,9 @@
     <x v="41"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10295,9 +10255,9 @@
     <x v="42"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10315,9 +10275,9 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10335,9 +10295,9 @@
     <x v="44"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10355,9 +10315,9 @@
     <x v="45"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10375,9 +10335,9 @@
     <x v="46"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10395,9 +10355,9 @@
     <x v="47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10415,9 +10375,9 @@
     <x v="48"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10435,9 +10395,9 @@
     <x v="49"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10455,9 +10415,9 @@
     <x v="50"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10475,9 +10435,9 @@
     <x v="51"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10495,9 +10455,9 @@
     <x v="52"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10515,9 +10475,9 @@
     <x v="53"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10535,9 +10495,9 @@
     <x v="54"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10555,9 +10515,9 @@
     <x v="55"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10575,9 +10535,9 @@
     <x v="56"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10595,9 +10555,9 @@
     <x v="57"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10615,9 +10575,9 @@
     <x v="58"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10635,9 +10595,9 @@
     <x v="59"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10655,9 +10615,9 @@
     <x v="60"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10675,9 +10635,9 @@
     <x v="61"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10695,9 +10655,9 @@
     <x v="62"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10715,9 +10675,9 @@
     <x v="63"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10735,9 +10695,9 @@
     <x v="64"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10755,9 +10715,9 @@
     <x v="65"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10775,9 +10735,9 @@
     <x v="66"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10795,9 +10755,9 @@
     <x v="67"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10815,9 +10775,9 @@
     <x v="68"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10835,9 +10795,9 @@
     <x v="69"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10855,9 +10815,9 @@
     <x v="70"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10875,9 +10835,9 @@
     <x v="71"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10895,9 +10855,9 @@
     <x v="72"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10915,9 +10875,9 @@
     <x v="73"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10935,9 +10895,9 @@
     <x v="74"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10955,9 +10915,9 @@
     <x v="75"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10975,9 +10935,9 @@
     <x v="76"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -10995,9 +10955,9 @@
     <x v="77"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11015,9 +10975,9 @@
     <x v="78"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11035,9 +10995,9 @@
     <x v="79"/>
     <n v="0.54467224952393067"/>
     <n v="-0.11419325528969411"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="0.80922676613999633"/>
+    <x v="1"/>
+    <n v="-0.6303567261615276"/>
     <n v="1.0010367690381574"/>
     <n v="-0.35876537033205846"/>
   </r>
@@ -11055,9 +11015,9 @@
     <x v="79"/>
     <n v="0.54467224952393067"/>
     <n v="-0.11419325528969411"/>
+    <n v="0.98000943763010495"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="-0.21671041734148666"/>
     <n v="1.0027930871760959"/>
     <n v="-9.5609364391371979E-2"/>
   </r>
@@ -11075,9 +11035,9 @@
     <x v="79"/>
     <n v="0.54467224952393067"/>
     <n v="-0.11419325528969411"/>
+    <n v="0.87865786571939186"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="-7.6917093058171515E-2"/>
     <n v="0.99723094939986423"/>
     <n v="-5.8472477784465349E-2"/>
   </r>
@@ -11095,9 +11055,9 @@
     <x v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11115,9 +11075,9 @@
     <x v="1"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11135,9 +11095,9 @@
     <x v="2"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11155,9 +11115,9 @@
     <x v="3"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11175,9 +11135,9 @@
     <x v="4"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11195,9 +11155,9 @@
     <x v="5"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11215,9 +11175,9 @@
     <x v="6"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11235,9 +11195,9 @@
     <x v="7"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11255,9 +11215,9 @@
     <x v="8"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11275,9 +11235,9 @@
     <x v="9"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11295,9 +11255,9 @@
     <x v="10"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11315,9 +11275,9 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11335,9 +11295,9 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11355,9 +11315,9 @@
     <x v="13"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11375,9 +11335,9 @@
     <x v="14"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11395,9 +11355,9 @@
     <x v="15"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11415,9 +11375,9 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11435,9 +11395,9 @@
     <x v="17"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11455,9 +11415,9 @@
     <x v="18"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11475,9 +11435,9 @@
     <x v="19"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11495,9 +11455,9 @@
     <x v="20"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11515,9 +11475,9 @@
     <x v="21"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11535,9 +11495,9 @@
     <x v="22"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11555,9 +11515,9 @@
     <x v="23"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11575,9 +11535,9 @@
     <x v="24"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11595,9 +11555,9 @@
     <x v="25"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11615,9 +11575,9 @@
     <x v="26"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11635,9 +11595,9 @@
     <x v="27"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11655,9 +11615,9 @@
     <x v="28"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11675,9 +11635,9 @@
     <x v="29"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11695,9 +11655,9 @@
     <x v="30"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11715,9 +11675,9 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11735,9 +11695,9 @@
     <x v="32"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11755,9 +11715,9 @@
     <x v="33"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11775,9 +11735,9 @@
     <x v="34"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11795,9 +11755,9 @@
     <x v="35"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11815,9 +11775,9 @@
     <x v="36"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11835,9 +11795,9 @@
     <x v="37"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11855,9 +11815,9 @@
     <x v="38"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11875,9 +11835,9 @@
     <x v="39"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11895,9 +11855,9 @@
     <x v="40"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11915,9 +11875,9 @@
     <x v="41"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11935,9 +11895,9 @@
     <x v="42"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11955,9 +11915,9 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11975,9 +11935,9 @@
     <x v="44"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -11995,9 +11955,9 @@
     <x v="45"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12015,9 +11975,9 @@
     <x v="46"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12035,9 +11995,9 @@
     <x v="47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12055,9 +12015,9 @@
     <x v="48"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12075,9 +12035,9 @@
     <x v="49"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12095,9 +12055,9 @@
     <x v="50"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12115,9 +12075,9 @@
     <x v="51"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12135,9 +12095,9 @@
     <x v="52"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12155,9 +12115,9 @@
     <x v="53"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12175,9 +12135,9 @@
     <x v="54"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12195,9 +12155,9 @@
     <x v="55"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12215,9 +12175,9 @@
     <x v="56"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12235,9 +12195,9 @@
     <x v="57"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12255,9 +12215,9 @@
     <x v="58"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12275,9 +12235,9 @@
     <x v="59"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12295,9 +12255,9 @@
     <x v="60"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12315,9 +12275,9 @@
     <x v="61"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12335,9 +12295,9 @@
     <x v="62"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12355,9 +12315,9 @@
     <x v="63"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12375,9 +12335,9 @@
     <x v="64"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12395,9 +12355,9 @@
     <x v="65"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12415,9 +12375,9 @@
     <x v="66"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12435,9 +12395,9 @@
     <x v="67"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12455,9 +12415,9 @@
     <x v="68"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12475,9 +12435,9 @@
     <x v="69"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12495,9 +12455,9 @@
     <x v="70"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12515,9 +12475,9 @@
     <x v="71"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12535,9 +12495,9 @@
     <x v="72"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12555,9 +12515,9 @@
     <x v="73"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12575,9 +12535,9 @@
     <x v="74"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12595,9 +12555,9 @@
     <x v="75"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12615,9 +12575,9 @@
     <x v="76"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12635,9 +12595,9 @@
     <x v="77"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12655,9 +12615,9 @@
     <x v="78"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12675,9 +12635,9 @@
     <x v="79"/>
     <n v="0.49782445035823619"/>
     <n v="-0.12199033450724252"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="4"/>
+    <n v="0.71096201028931316"/>
+    <x v="1"/>
+    <n v="-0.51173439317577984"/>
     <n v="1.0079525611249234"/>
     <n v="-0.23826671331149607"/>
   </r>
@@ -12695,9 +12655,9 @@
     <x v="79"/>
     <n v="0.49782445035823619"/>
     <n v="-0.12199033450724252"/>
-    <x v="5"/>
+    <n v="0.86846364137674004"/>
     <x v="2"/>
-    <x v="5"/>
+    <n v="-0.19391490789424704"/>
     <n v="1.003190076905677"/>
     <n v="-7.2765912975966199E-2"/>
   </r>
@@ -12715,9 +12675,9 @@
     <x v="79"/>
     <n v="0.49782445035823619"/>
     <n v="-0.12199033450724252"/>
-    <x v="6"/>
+    <n v="0.86204778816398164"/>
     <x v="3"/>
-    <x v="6"/>
+    <n v="-3.4195434072043507E-2"/>
     <n v="1.0013764243773273"/>
     <n v="-1.5674144793050907E-2"/>
   </r>
@@ -12735,9 +12695,9 @@
     <x v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12755,9 +12715,9 @@
     <x v="1"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12775,9 +12735,9 @@
     <x v="2"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12795,9 +12755,9 @@
     <x v="3"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12815,9 +12775,9 @@
     <x v="4"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12835,9 +12795,9 @@
     <x v="5"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12855,9 +12815,9 @@
     <x v="6"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12875,9 +12835,9 @@
     <x v="7"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12895,9 +12855,9 @@
     <x v="8"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12915,9 +12875,9 @@
     <x v="9"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12935,9 +12895,9 @@
     <x v="10"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12955,9 +12915,9 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12975,9 +12935,9 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -12995,9 +12955,9 @@
     <x v="13"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13015,9 +12975,9 @@
     <x v="14"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13035,9 +12995,9 @@
     <x v="15"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13055,9 +13015,9 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13075,9 +13035,9 @@
     <x v="17"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13095,9 +13055,9 @@
     <x v="18"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13115,9 +13075,9 @@
     <x v="19"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13135,9 +13095,9 @@
     <x v="20"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13155,9 +13115,9 @@
     <x v="21"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13175,9 +13135,9 @@
     <x v="22"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13195,9 +13155,9 @@
     <x v="23"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13215,9 +13175,9 @@
     <x v="24"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13235,9 +13195,9 @@
     <x v="25"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13255,9 +13215,9 @@
     <x v="26"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13275,9 +13235,9 @@
     <x v="27"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13295,9 +13255,9 @@
     <x v="28"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13315,9 +13275,9 @@
     <x v="29"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13335,9 +13295,9 @@
     <x v="30"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13355,9 +13315,9 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13375,9 +13335,9 @@
     <x v="32"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13395,9 +13355,9 @@
     <x v="33"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13415,9 +13375,9 @@
     <x v="34"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13435,9 +13395,9 @@
     <x v="35"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13455,9 +13415,9 @@
     <x v="36"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13475,9 +13435,9 @@
     <x v="37"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13495,9 +13455,9 @@
     <x v="38"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13515,9 +13475,9 @@
     <x v="39"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13535,9 +13495,9 @@
     <x v="40"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13555,9 +13515,9 @@
     <x v="41"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13575,9 +13535,9 @@
     <x v="42"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13595,9 +13555,9 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13615,9 +13575,9 @@
     <x v="44"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13635,9 +13595,9 @@
     <x v="45"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13655,9 +13615,9 @@
     <x v="46"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13675,9 +13635,9 @@
     <x v="47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13695,9 +13655,9 @@
     <x v="48"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13715,9 +13675,9 @@
     <x v="49"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13735,9 +13695,9 @@
     <x v="50"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13755,9 +13715,9 @@
     <x v="51"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13775,9 +13735,9 @@
     <x v="52"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13795,9 +13755,9 @@
     <x v="53"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13815,9 +13775,9 @@
     <x v="54"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13835,9 +13795,9 @@
     <x v="55"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13855,9 +13815,9 @@
     <x v="56"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13875,9 +13835,9 @@
     <x v="57"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13895,9 +13855,9 @@
     <x v="58"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13915,9 +13875,9 @@
     <x v="59"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13935,9 +13895,9 @@
     <x v="60"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13955,9 +13915,9 @@
     <x v="61"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13975,9 +13935,9 @@
     <x v="62"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -13995,9 +13955,9 @@
     <x v="63"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14015,9 +13975,9 @@
     <x v="64"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14035,9 +13995,9 @@
     <x v="65"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14055,9 +14015,9 @@
     <x v="66"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14075,9 +14035,9 @@
     <x v="67"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14095,9 +14055,9 @@
     <x v="68"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14115,9 +14075,9 @@
     <x v="69"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14135,9 +14095,9 @@
     <x v="70"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14155,9 +14115,9 @@
     <x v="71"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14175,9 +14135,9 @@
     <x v="72"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14195,9 +14155,9 @@
     <x v="73"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14215,9 +14175,9 @@
     <x v="74"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14235,9 +14195,9 @@
     <x v="75"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14255,9 +14215,9 @@
     <x v="76"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14275,9 +14235,9 @@
     <x v="77"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14295,9 +14255,9 @@
     <x v="78"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14315,9 +14275,9 @@
     <x v="79"/>
     <n v="0.36616905694175705"/>
     <n v="-0.107508463782262"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="7"/>
+    <n v="0.55745252606329321"/>
+    <x v="1"/>
+    <n v="-0.49664666323734175"/>
     <n v="1.0125322852273093"/>
     <n v="-0.2219364581064916"/>
   </r>
@@ -14335,9 +14295,9 @@
     <x v="79"/>
     <n v="0.36616905694175705"/>
     <n v="-0.107508463782262"/>
-    <x v="8"/>
+    <n v="0.66425586297867956"/>
     <x v="2"/>
-    <x v="8"/>
+    <n v="-0.26919845657010399"/>
     <n v="1.004782409737756"/>
     <n v="-0.14785716556893447"/>
   </r>
@@ -14355,9 +14315,9 @@
     <x v="79"/>
     <n v="0.36616905694175705"/>
     <n v="-0.107508463782262"/>
-    <x v="9"/>
+    <n v="0.71133906042590278"/>
     <x v="3"/>
-    <x v="9"/>
+    <n v="-2.7987675355572117E-2"/>
     <n v="0.99920540609705344"/>
     <n v="-9.5065408641499712E-3"/>
   </r>
@@ -14375,9 +14335,9 @@
     <x v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14395,9 +14355,9 @@
     <x v="1"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14415,9 +14375,9 @@
     <x v="2"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14435,9 +14395,9 @@
     <x v="3"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14455,9 +14415,9 @@
     <x v="4"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14475,9 +14435,9 @@
     <x v="5"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14495,9 +14455,9 @@
     <x v="6"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14515,9 +14475,9 @@
     <x v="7"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14535,9 +14495,9 @@
     <x v="8"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14555,9 +14515,9 @@
     <x v="9"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14575,9 +14535,9 @@
     <x v="10"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14595,9 +14555,9 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14615,9 +14575,9 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14635,9 +14595,9 @@
     <x v="13"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14655,9 +14615,9 @@
     <x v="14"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14675,9 +14635,9 @@
     <x v="15"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14695,9 +14655,9 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14715,9 +14675,9 @@
     <x v="17"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14735,9 +14695,9 @@
     <x v="18"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14755,9 +14715,9 @@
     <x v="19"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14775,9 +14735,9 @@
     <x v="20"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14795,9 +14755,9 @@
     <x v="21"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14815,9 +14775,9 @@
     <x v="22"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14835,9 +14795,9 @@
     <x v="23"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14855,9 +14815,9 @@
     <x v="24"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14875,9 +14835,9 @@
     <x v="25"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14895,9 +14855,9 @@
     <x v="26"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14915,9 +14875,9 @@
     <x v="27"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14935,9 +14895,9 @@
     <x v="28"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14955,9 +14915,9 @@
     <x v="29"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14975,9 +14935,9 @@
     <x v="30"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -14995,9 +14955,9 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15015,9 +14975,9 @@
     <x v="32"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15035,9 +14995,9 @@
     <x v="33"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15055,9 +15015,9 @@
     <x v="34"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15075,9 +15035,9 @@
     <x v="35"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15095,9 +15055,9 @@
     <x v="36"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15115,9 +15075,9 @@
     <x v="37"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15135,9 +15095,9 @@
     <x v="38"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15155,9 +15115,9 @@
     <x v="39"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15175,9 +15135,9 @@
     <x v="40"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15195,9 +15155,9 @@
     <x v="41"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15215,9 +15175,9 @@
     <x v="42"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15235,9 +15195,9 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15255,9 +15215,9 @@
     <x v="44"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15275,9 +15235,9 @@
     <x v="45"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15295,9 +15255,9 @@
     <x v="46"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15315,9 +15275,9 @@
     <x v="47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15335,9 +15295,9 @@
     <x v="48"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15355,9 +15315,9 @@
     <x v="49"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15375,9 +15335,9 @@
     <x v="50"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15395,9 +15355,9 @@
     <x v="51"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15415,9 +15375,9 @@
     <x v="52"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15435,9 +15395,9 @@
     <x v="53"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15455,9 +15415,9 @@
     <x v="54"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15475,9 +15435,9 @@
     <x v="55"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15495,9 +15455,9 @@
     <x v="56"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15515,9 +15475,9 @@
     <x v="57"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15535,9 +15495,9 @@
     <x v="58"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15555,9 +15515,9 @@
     <x v="59"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15575,9 +15535,9 @@
     <x v="60"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15595,9 +15555,9 @@
     <x v="61"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15615,9 +15575,9 @@
     <x v="62"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15635,9 +15595,9 @@
     <x v="63"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15655,9 +15615,9 @@
     <x v="64"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15675,9 +15635,9 @@
     <x v="65"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15695,9 +15655,9 @@
     <x v="66"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15715,9 +15675,9 @@
     <x v="67"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15735,9 +15695,9 @@
     <x v="68"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15755,9 +15715,9 @@
     <x v="69"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15775,9 +15735,9 @@
     <x v="70"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15795,9 +15755,9 @@
     <x v="71"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15815,9 +15775,9 @@
     <x v="72"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15835,9 +15795,9 @@
     <x v="73"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15855,9 +15815,9 @@
     <x v="74"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15875,9 +15835,9 @@
     <x v="75"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15895,9 +15855,9 @@
     <x v="76"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15915,9 +15875,9 @@
     <x v="77"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15935,9 +15895,9 @@
     <x v="78"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -15955,9 +15915,9 @@
     <x v="79"/>
     <n v="0.64917068819152912"/>
     <n v="0.11123126916156932"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="10"/>
+    <n v="0.47984534291945125"/>
+    <x v="1"/>
+    <n v="-4.4785498251329714E-2"/>
     <n v="1.0137107098076577"/>
     <n v="9.4734588674222436E-2"/>
   </r>
@@ -15975,9 +15935,9 @@
     <x v="79"/>
     <n v="0.64917068819152912"/>
     <n v="0.11123126916156932"/>
-    <x v="11"/>
+    <n v="0.6557822695305352"/>
     <x v="2"/>
-    <x v="11"/>
+    <n v="4.2783498918794294E-2"/>
     <n v="1.0088313430058522"/>
     <n v="0.13943965404072345"/>
   </r>
@@ -15995,9 +15955,9 @@
     <x v="79"/>
     <n v="0.64917068819152912"/>
     <n v="0.11123126916156932"/>
-    <x v="12"/>
+    <n v="0.87611666102298069"/>
     <x v="3"/>
-    <x v="12"/>
+    <n v="1.2308195518631049E-3"/>
     <n v="1.0065319647766517"/>
     <n v="6.5688705896094985E-3"/>
   </r>
@@ -16005,7 +15965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Moyenne du panier de fonds" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Moyenne du panier de fonds" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:F82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16441,7 +16401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisPage" showAll="0">
@@ -16491,24 +16451,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="14">
-        <item x="10"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="3"/>
@@ -16567,7 +16510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A6:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisPage" showAll="0">
@@ -16714,7 +16657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="D8:F90" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -17119,7 +17062,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:C83" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -17513,7 +17456,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:E86" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisPage" showAll="0">
@@ -17979,7 +17922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -18384,7 +18327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique8" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A18:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -18395,14 +18338,7 @@
         <item x="1"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18466,7 +18402,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -18478,15 +18414,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18549,7 +18477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A13:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -18572,24 +18500,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="14">
-        <item x="10"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="3"/>
@@ -18642,7 +18553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -18675,24 +18586,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="14">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -37541,19 +37435,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11 B14:B16"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisPage" activeRow="10" activeCol="1" previousRow="10" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -37654,7 +37541,7 @@
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
